--- a/biology/Botanique/Humbertiaceae/Humbertiaceae.xlsx
+++ b/biology/Botanique/Humbertiaceae/Humbertiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Humbertiaceae est une famille de plantes dicotylédones.
-Cette famille existe facultativement dans la classification classique de Cronquist (1981)[2] mais n'est généralement pas acceptée.
+Cette famille existe facultativement dans la classification classique de Cronquist (1981) mais n'est généralement pas acceptée.
 Elle ne comprend qu'une seule espèce, Humbertia madagascariensis, un grand arbre endémique de Madagascar.
-La classification phylogénétique APG II (2003)[3] assigne ces plantes aux Convolvulaceae.
-Le genre Humbertia appartient à la sous-famille des Humbertioideae, dans la famille des Convolvulaceae, selon l’Angiosperm Phylogeny Website[4].
+La classification phylogénétique APG II (2003) assigne ces plantes aux Convolvulaceae.
+Le genre Humbertia appartient à la sous-famille des Humbertioideae, dans la famille des Convolvulaceae, selon l’Angiosperm Phylogeny Website.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 janvier 2019) :
 genre Humbertia Comm. ex Lam.</t>
         </is>
       </c>
